--- a/teaching/traditional_assets/database/data/saudi_arabia/saudi_arabia_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/saudi_arabia/saudi_arabia_bank_money_center.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0399</v>
+        <v>0.0298</v>
       </c>
       <c r="E2">
-        <v>0.0645</v>
+        <v>-0.005550000000000001</v>
       </c>
       <c r="F2">
-        <v>0.0667</v>
+        <v>0.14</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,91 +606,91 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.002291765630087823</v>
+        <v>5.212667122831877e-05</v>
       </c>
       <c r="J2">
-        <v>-0.002223956061237483</v>
+        <v>4.559982674883828e-05</v>
       </c>
       <c r="K2">
-        <v>13571.9</v>
+        <v>9443.4</v>
       </c>
       <c r="L2">
-        <v>0.6080382423569047</v>
+        <v>0.421364031858644</v>
       </c>
       <c r="M2">
-        <v>8038.35</v>
+        <v>4077.8</v>
       </c>
       <c r="N2">
-        <v>0.04381097461276012</v>
+        <v>0.0242900124315209</v>
       </c>
       <c r="O2">
-        <v>0.5922788997855865</v>
+        <v>0.4318148124616134</v>
       </c>
       <c r="P2">
-        <v>7929</v>
+        <v>3772.3</v>
       </c>
       <c r="Q2">
-        <v>0.04321499035306686</v>
+        <v>0.0224702569756796</v>
       </c>
       <c r="R2">
-        <v>0.5842218112423463</v>
+        <v>0.3994641760382913</v>
       </c>
       <c r="S2">
-        <v>109.35</v>
+        <v>305.5</v>
       </c>
       <c r="T2">
-        <v>0.01360353803952303</v>
+        <v>0.07491784785913974</v>
       </c>
       <c r="U2">
-        <v>22975.6</v>
+        <v>37905</v>
       </c>
       <c r="V2">
-        <v>0.1252226424966481</v>
+        <v>0.2257866793900632</v>
       </c>
       <c r="W2">
-        <v>0.1352133580705009</v>
+        <v>0.09478477170201104</v>
       </c>
       <c r="X2">
-        <v>0.04453787867092944</v>
+        <v>0.03876868413753465</v>
       </c>
       <c r="Y2">
-        <v>0.09067547939957148</v>
+        <v>0.05601608756447638</v>
       </c>
       <c r="Z2">
-        <v>0.2826302990760525</v>
+        <v>0.2102158263535828</v>
       </c>
       <c r="AA2">
-        <v>0.0004845994251485581</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0433861503848465</v>
+        <v>0.03643891026546484</v>
       </c>
       <c r="AC2">
-        <v>-0.04297949195305195</v>
+        <v>-0.03643891026546484</v>
       </c>
       <c r="AD2">
-        <v>34043.5</v>
+        <v>42678.2</v>
       </c>
       <c r="AE2">
-        <v>1122.155211380321</v>
+        <v>2.958815538832669</v>
       </c>
       <c r="AF2">
-        <v>35165.65521138033</v>
+        <v>42681.15881553883</v>
       </c>
       <c r="AG2">
-        <v>12190.05521138032</v>
+        <v>4776.158815538831</v>
       </c>
       <c r="AH2">
-        <v>0.160835470745231</v>
+        <v>0.202702245116361</v>
       </c>
       <c r="AI2">
-        <v>0.2615485023315174</v>
+        <v>0.2882515113678065</v>
       </c>
       <c r="AJ2">
-        <v>0.06229966970444614</v>
+        <v>0.02766288296443828</v>
       </c>
       <c r="AK2">
-        <v>0.1093512346946809</v>
+        <v>0.04335492474949253</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>196.4686600068099</v>
+        <v>24248.97727272727</v>
       </c>
       <c r="AP2">
-        <v>70.35010538836848</v>
+        <v>2713.726599737972</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +713,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bank Albilad (SASE:1140)</t>
+          <t>Al Rajhi Banking and Investment Corporation (SASE:1120)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,10 +722,13 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.102</v>
+        <v>0.09130000000000001</v>
       </c>
       <c r="E3">
-        <v>0.09050000000000001</v>
+        <v>0.0788</v>
+      </c>
+      <c r="F3">
+        <v>0.09699999999999999</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -734,34 +737,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.003254633179862233</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.003170777746775133</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>340.7</v>
+        <v>2610.6</v>
       </c>
       <c r="L3">
-        <v>0.3879526303803233</v>
+        <v>0.5547975773031558</v>
       </c>
       <c r="M3">
-        <v>80</v>
+        <v>999.8</v>
       </c>
       <c r="N3">
-        <v>0.01487514177869508</v>
+        <v>0.02038452912512488</v>
       </c>
       <c r="O3">
-        <v>0.2348106838861168</v>
+        <v>0.3829770933884931</v>
       </c>
       <c r="P3">
-        <v>80</v>
+        <v>999.8</v>
       </c>
       <c r="Q3">
-        <v>0.01487514177869508</v>
+        <v>0.02038452912512488</v>
       </c>
       <c r="R3">
-        <v>0.2348106838861168</v>
+        <v>0.3829770933884931</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -770,67 +773,61 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1357.3</v>
+        <v>5590.3</v>
       </c>
       <c r="V3">
-        <v>0.2523753742027853</v>
+        <v>0.1139784288539564</v>
       </c>
       <c r="W3">
-        <v>0.1608972845336482</v>
+        <v>0.1991198029090742</v>
       </c>
       <c r="X3">
-        <v>0.04545560142504503</v>
+        <v>0.03518953549449788</v>
       </c>
       <c r="Y3">
-        <v>0.1154416831086031</v>
+        <v>0.1639302674145764</v>
       </c>
       <c r="Z3">
-        <v>0.6998675224615466</v>
+        <v>0.4531359841298883</v>
       </c>
       <c r="AA3">
-        <v>0.002219124365911717</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04328045469732245</v>
+        <v>0.03518953549449788</v>
       </c>
       <c r="AC3">
-        <v>-0.04106133033141073</v>
+        <v>-0.03518953549449788</v>
       </c>
       <c r="AD3">
-        <v>535.3</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>195.2089057072249</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>730.5089057072249</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>-626.791094292775</v>
+        <v>-5590.3</v>
       </c>
       <c r="AH3">
-        <v>0.1195867859578825</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.2319805778838096</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.1319196681865664</v>
+        <v>-0.1286406929196189</v>
       </c>
       <c r="AK3">
-        <v>-0.3498286425301701</v>
+        <v>-0.617623987714472</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>12.77565632458234</v>
-      </c>
-      <c r="AP3">
-        <v>-14.95921466092542</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +838,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The Saudi British Bank (SASE:1060)</t>
+          <t>Bank Albilad (SASE:1140)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -850,13 +847,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0143</v>
+        <v>0.09820000000000001</v>
       </c>
       <c r="E4">
-        <v>-0.0136</v>
-      </c>
-      <c r="F4">
-        <v>0.05429999999999999</v>
+        <v>0.09269999999999999</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -865,34 +859,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.003899116637226877</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.003899116637226877</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1063.5</v>
+        <v>346</v>
       </c>
       <c r="L4">
-        <v>0.6228039353478567</v>
+        <v>0.369579149754326</v>
       </c>
       <c r="M4">
-        <v>741.4</v>
+        <v>100</v>
       </c>
       <c r="N4">
-        <v>0.03900647652719248</v>
+        <v>0.01764384141715334</v>
       </c>
       <c r="O4">
-        <v>0.6971321109543959</v>
+        <v>0.2890173410404624</v>
       </c>
       <c r="P4">
-        <v>741.4</v>
+        <v>100</v>
       </c>
       <c r="Q4">
-        <v>0.03900647652719248</v>
+        <v>0.01764384141715334</v>
       </c>
       <c r="R4">
-        <v>0.6971321109543959</v>
+        <v>0.2890173410404624</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -901,67 +895,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1161.2</v>
+        <v>740</v>
       </c>
       <c r="V4">
-        <v>0.06109295999915822</v>
+        <v>0.1305644264869347</v>
       </c>
       <c r="W4">
-        <v>0.1218603905032542</v>
+        <v>0.143063882571842</v>
       </c>
       <c r="X4">
-        <v>0.0442305374409661</v>
+        <v>0.03714277320599413</v>
       </c>
       <c r="Y4">
-        <v>0.07762985306228809</v>
+        <v>0.1059211093658479</v>
       </c>
       <c r="Z4">
-        <v>0.2873485201000627</v>
+        <v>0.5864077669902912</v>
       </c>
       <c r="AA4">
-        <v>0.001120405395404676</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04310346014845678</v>
+        <v>0.03569428213615126</v>
       </c>
       <c r="AC4">
-        <v>-0.04198305475305211</v>
+        <v>-0.03569428213615126</v>
       </c>
       <c r="AD4">
-        <v>1293</v>
+        <v>534.5</v>
       </c>
       <c r="AE4">
-        <v>59.70934215135693</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>1352.709342151357</v>
+        <v>534.5</v>
       </c>
       <c r="AG4">
-        <v>191.5093421513568</v>
+        <v>-205.5</v>
       </c>
       <c r="AH4">
-        <v>0.06644017728352757</v>
+        <v>0.0861790977395118</v>
       </c>
       <c r="AI4">
-        <v>0.08442819581889732</v>
+        <v>0.1627885728208564</v>
       </c>
       <c r="AJ4">
-        <v>0.009975167406052166</v>
+        <v>-0.03762220350774413</v>
       </c>
       <c r="AK4">
-        <v>0.01288687161931064</v>
+        <v>-0.08079735786742157</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>69.51612903225806</v>
-      </c>
-      <c r="AP4">
-        <v>10.29620119093316</v>
       </c>
     </row>
     <row r="5">
@@ -972,7 +960,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alinma Bank (SASE:1150)</t>
+          <t>The Saudi British Bank (SASE:1060)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -981,13 +969,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.163</v>
-      </c>
-      <c r="E5">
-        <v>0.177</v>
+        <v>0.0298</v>
       </c>
       <c r="F5">
-        <v>0.0667</v>
+        <v>0.161</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -996,34 +981,34 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.002386184122750583</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.002239890505745266</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>728.8</v>
+        <v>-1088.8</v>
       </c>
       <c r="L5">
-        <v>0.5516197396306387</v>
+        <v>-0.5647302904564315</v>
       </c>
       <c r="M5">
-        <v>397.2</v>
+        <v>338.6</v>
       </c>
       <c r="N5">
-        <v>0.03918512307009323</v>
+        <v>0.02500775491513908</v>
       </c>
       <c r="O5">
-        <v>0.5450054884742042</v>
+        <v>-0.3109845701689934</v>
       </c>
       <c r="P5">
-        <v>397.2</v>
+        <v>338.6</v>
       </c>
       <c r="Q5">
-        <v>0.03918512307009323</v>
+        <v>0.02500775491513908</v>
       </c>
       <c r="R5">
-        <v>0.5450054884742042</v>
+        <v>-0.3109845701689934</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1032,67 +1017,61 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1000.4</v>
+        <v>2688.3</v>
       </c>
       <c r="V5">
-        <v>0.09869284269718344</v>
+        <v>0.1985479844606272</v>
       </c>
       <c r="W5">
-        <v>0.1352133580705009</v>
+        <v>-0.07437006072279939</v>
       </c>
       <c r="X5">
-        <v>0.04453787867092944</v>
+        <v>0.03849487875194695</v>
       </c>
       <c r="Y5">
-        <v>0.09067547939957148</v>
+        <v>-0.1128649394747463</v>
       </c>
       <c r="Z5">
-        <v>0.284022944027245</v>
+        <v>0.1701902281855497</v>
       </c>
       <c r="AA5">
-        <v>0.0006361802957404453</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.04314984217674494</v>
+        <v>0.03599560003578136</v>
       </c>
       <c r="AC5">
-        <v>-0.04251366188100449</v>
+        <v>-0.03599560003578136</v>
       </c>
       <c r="AD5">
-        <v>772.6</v>
+        <v>2160.8</v>
       </c>
       <c r="AE5">
-        <v>113.2368676851097</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>885.8368676851097</v>
+        <v>2160.8</v>
       </c>
       <c r="AG5">
-        <v>-114.5631323148903</v>
+        <v>-527.5</v>
       </c>
       <c r="AH5">
-        <v>0.08036742827940364</v>
+        <v>0.1376253136822797</v>
       </c>
       <c r="AI5">
-        <v>0.1315813577411613</v>
+        <v>0.1400007774941364</v>
       </c>
       <c r="AJ5">
-        <v>-0.01143123667883894</v>
+        <v>-0.0405385673555021</v>
       </c>
       <c r="AK5">
-        <v>-0.01998715856007227</v>
+        <v>-0.04138585741297202</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>29.94573643410853</v>
-      </c>
-      <c r="AP5">
-        <v>-4.440431485073265</v>
       </c>
     </row>
     <row r="6">
@@ -1103,7 +1082,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Arab National Bank (SASE:1080)</t>
+          <t>Riyad Bank (SASE:1010)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1112,10 +1091,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0399</v>
+        <v>0.0578</v>
       </c>
       <c r="E6">
-        <v>0.0572</v>
+        <v>0.0304</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1124,34 +1103,34 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.004063432569989282</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.004063432569989282</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>979.8</v>
+        <v>1318.8</v>
       </c>
       <c r="L6">
-        <v>0.6342979219265876</v>
+        <v>0.5301282308960084</v>
       </c>
       <c r="M6">
-        <v>424.8</v>
+        <v>438.8</v>
       </c>
       <c r="N6">
-        <v>0.03877256713093956</v>
+        <v>0.02716439161791562</v>
       </c>
       <c r="O6">
-        <v>0.4335578689528475</v>
+        <v>0.3327267212617531</v>
       </c>
       <c r="P6">
-        <v>424.8</v>
+        <v>438.8</v>
       </c>
       <c r="Q6">
-        <v>0.03877256713093956</v>
+        <v>0.02716439161791562</v>
       </c>
       <c r="R6">
-        <v>0.4335578689528475</v>
+        <v>0.3327267212617531</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1160,67 +1139,61 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>679.9</v>
+        <v>11955.4</v>
       </c>
       <c r="V6">
-        <v>0.06205618736423212</v>
+        <v>0.7401120500201195</v>
       </c>
       <c r="W6">
-        <v>0.1486008948206567</v>
+        <v>0.1260658433066952</v>
       </c>
       <c r="X6">
-        <v>0.04527080277088599</v>
+        <v>0.03774632245606426</v>
       </c>
       <c r="Y6">
-        <v>0.1033300920497707</v>
+        <v>0.08831952085063094</v>
       </c>
       <c r="Z6">
-        <v>0.278494126531472</v>
+        <v>0.3075601162143784</v>
       </c>
       <c r="AA6">
-        <v>0.0011316421042987</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.04369394292600907</v>
+        <v>0.03628143036874835</v>
       </c>
       <c r="AC6">
-        <v>-0.04256230082171037</v>
+        <v>-0.03628143036874835</v>
       </c>
       <c r="AD6">
-        <v>1285.2</v>
+        <v>1994.1</v>
       </c>
       <c r="AE6">
-        <v>96.11607854568778</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>1381.316078545688</v>
+        <v>1994.1</v>
       </c>
       <c r="AG6">
-        <v>701.4160785456878</v>
+        <v>-9961.299999999999</v>
       </c>
       <c r="AH6">
-        <v>0.1119606304665917</v>
+        <v>0.1098822984857502</v>
       </c>
       <c r="AI6">
-        <v>0.1578247230357702</v>
+        <v>0.1491930958633537</v>
       </c>
       <c r="AJ6">
-        <v>0.06016805441350501</v>
+        <v>-1.608685119989664</v>
       </c>
       <c r="AK6">
-        <v>0.08689155277379268</v>
+        <v>-7.062247429989365</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>50.4</v>
-      </c>
-      <c r="AP6">
-        <v>27.50651288414462</v>
       </c>
     </row>
     <row r="7">
@@ -1231,7 +1204,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Riyad Bank (SASE:1010)</t>
+          <t>Alinma Bank (SASE:1150)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1240,13 +1213,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.06559999999999999</v>
+        <v>0.108</v>
       </c>
       <c r="E7">
-        <v>0.0851</v>
-      </c>
-      <c r="F7">
-        <v>0.1</v>
+        <v>0.0799</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1255,103 +1225,94 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0014141196358782</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0014141196358782</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1733.5</v>
+        <v>554.7</v>
       </c>
       <c r="L7">
-        <v>0.6734915886398073</v>
+        <v>0.468338399189463</v>
       </c>
       <c r="M7">
-        <v>912</v>
+        <v>-0</v>
       </c>
       <c r="N7">
-        <v>0.0475165813070186</v>
+        <v>-0</v>
       </c>
       <c r="O7">
-        <v>0.5261032593019902</v>
+        <v>-0</v>
       </c>
       <c r="P7">
-        <v>912</v>
+        <v>-0</v>
       </c>
       <c r="Q7">
-        <v>0.0475165813070186</v>
+        <v>-0</v>
       </c>
       <c r="R7">
-        <v>0.5261032593019902</v>
+        <v>-0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
       <c r="U7">
-        <v>3785.3</v>
+        <v>1733.7</v>
       </c>
       <c r="V7">
-        <v>0.1972198631814227</v>
+        <v>0.2009877230202066</v>
       </c>
       <c r="W7">
-        <v>0.1768859501433659</v>
+        <v>0.09487889983579641</v>
       </c>
       <c r="X7">
-        <v>0.04429745316698547</v>
+        <v>0.0403374888999585</v>
       </c>
       <c r="Y7">
-        <v>0.1325884969763804</v>
+        <v>0.05454141093583791</v>
       </c>
       <c r="Z7">
-        <v>0.3426862995559857</v>
+        <v>0.2107998433773538</v>
       </c>
       <c r="AA7">
-        <v>0.0004845994251485581</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.0433861503848465</v>
+        <v>0.03635549805512705</v>
       </c>
       <c r="AC7">
-        <v>-0.04290155095969794</v>
+        <v>-0.03635549805512705</v>
       </c>
       <c r="AD7">
-        <v>1412.6</v>
+        <v>2144</v>
       </c>
       <c r="AE7">
-        <v>21.15098734606551</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>1433.750987346065</v>
+        <v>2144</v>
       </c>
       <c r="AG7">
-        <v>-2351.549012653935</v>
+        <v>410.3</v>
       </c>
       <c r="AH7">
-        <v>0.06950828735652123</v>
+        <v>0.1990733432993807</v>
       </c>
       <c r="AI7">
-        <v>0.1205344174071251</v>
+        <v>0.2506781404920027</v>
       </c>
       <c r="AJ7">
-        <v>-0.1396261596802349</v>
+        <v>0.04540625484163697</v>
       </c>
       <c r="AK7">
-        <v>-0.2899692004407077</v>
+        <v>0.06016923054362012</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
         <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>179.4917407878018</v>
-      </c>
-      <c r="AP7">
-        <v>-298.7991121542484</v>
       </c>
     </row>
     <row r="8">
@@ -1362,7 +1323,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bank AlJazira (SASE:1020)</t>
+          <t>Banque Saudi Fransi (SASE:1050)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1371,10 +1332,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.101</v>
+        <v>-0.047</v>
       </c>
       <c r="E8">
-        <v>0.142</v>
+        <v>-0.13</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1383,34 +1344,34 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.00622933597555072</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.005887972712667137</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>270.8</v>
+        <v>524.3</v>
       </c>
       <c r="L8">
-        <v>0.3639295793576132</v>
+        <v>0.4159460531535105</v>
       </c>
       <c r="M8">
-        <v>172.7</v>
+        <v>320.9</v>
       </c>
       <c r="N8">
-        <v>0.05253072149896581</v>
+        <v>0.03176567248393898</v>
       </c>
       <c r="O8">
-        <v>0.6377400295420974</v>
+        <v>0.6120541674613771</v>
       </c>
       <c r="P8">
-        <v>172.7</v>
+        <v>320.9</v>
       </c>
       <c r="Q8">
-        <v>0.05253072149896581</v>
+        <v>0.03176567248393898</v>
       </c>
       <c r="R8">
-        <v>0.6377400295420974</v>
+        <v>0.6120541674613771</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1419,67 +1380,61 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>580.3</v>
+        <v>1359</v>
       </c>
       <c r="V8">
-        <v>0.1765117410877236</v>
+        <v>0.1345264845923125</v>
       </c>
       <c r="W8">
-        <v>0.08720012880373532</v>
+        <v>0.06030734546458395</v>
       </c>
       <c r="X8">
-        <v>0.0570271039126676</v>
+        <v>0.0381681096259285</v>
       </c>
       <c r="Y8">
-        <v>0.03017302489106771</v>
+        <v>0.02213923583865546</v>
       </c>
       <c r="Z8">
-        <v>0.22525115004106</v>
+        <v>0.1898915335944562</v>
       </c>
       <c r="AA8">
-        <v>0.001326272624938653</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.0443057645779906</v>
+        <v>0.03643891026546484</v>
       </c>
       <c r="AC8">
-        <v>-0.04297949195305195</v>
+        <v>-0.03643891026546484</v>
       </c>
       <c r="AD8">
-        <v>2349.2</v>
+        <v>1452.8</v>
       </c>
       <c r="AE8">
-        <v>105.3237555029635</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>2454.523755502963</v>
+        <v>1452.8</v>
       </c>
       <c r="AG8">
-        <v>1874.223755502964</v>
+        <v>93.79999999999995</v>
       </c>
       <c r="AH8">
-        <v>0.4274592224088989</v>
+        <v>0.1257302096945885</v>
       </c>
       <c r="AI8">
-        <v>0.4486570697939263</v>
+        <v>0.1392544595358824</v>
       </c>
       <c r="AJ8">
-        <v>0.3630933259789961</v>
+        <v>0.009199776380702043</v>
       </c>
       <c r="AK8">
-        <v>0.3832357942018032</v>
+        <v>0.01033756901815136</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
         <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>91.40856031128405</v>
-      </c>
-      <c r="AP8">
-        <v>72.92699437754722</v>
       </c>
     </row>
     <row r="9">
@@ -1499,13 +1454,13 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.0179</v>
+        <v>0.0145</v>
       </c>
       <c r="E9">
-        <v>0.0133</v>
+        <v>-0.0415</v>
       </c>
       <c r="F9">
-        <v>0.06469999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1520,28 +1475,28 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1361.2</v>
+        <v>1124.1</v>
       </c>
       <c r="L9">
-        <v>0.6633528265107212</v>
+        <v>0.5170891025346152</v>
       </c>
       <c r="M9">
-        <v>906.7</v>
+        <v>365.5</v>
       </c>
       <c r="N9">
-        <v>0.05240828405787049</v>
+        <v>0.02244148635704988</v>
       </c>
       <c r="O9">
-        <v>0.6661034381428151</v>
+        <v>0.3251490080953652</v>
       </c>
       <c r="P9">
-        <v>906.7</v>
+        <v>365.5</v>
       </c>
       <c r="Q9">
-        <v>0.05240828405787049</v>
+        <v>0.02244148635704988</v>
       </c>
       <c r="R9">
-        <v>0.6661034381428151</v>
+        <v>0.3251490080953652</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1550,55 +1505,55 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>2989.1</v>
+        <v>4506.6</v>
       </c>
       <c r="V9">
-        <v>0.1727733559913761</v>
+        <v>0.2767026057911929</v>
       </c>
       <c r="W9">
-        <v>0.119226760328986</v>
+        <v>0.09478477170201104</v>
       </c>
       <c r="X9">
-        <v>0.04389361539988006</v>
+        <v>0.03876868413753465</v>
       </c>
       <c r="Y9">
-        <v>0.07533314492910592</v>
+        <v>0.05601608756447638</v>
       </c>
       <c r="Z9">
-        <v>0.3336422613531048</v>
+        <v>0.2219624259750868</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.04324963651869833</v>
+        <v>0.03665370520877718</v>
       </c>
       <c r="AC9">
-        <v>-0.04324963651869833</v>
+        <v>-0.03665370520877718</v>
       </c>
       <c r="AD9">
-        <v>923.6</v>
+        <v>2814.5</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>923.6</v>
+        <v>2814.5</v>
       </c>
       <c r="AG9">
-        <v>-2065.5</v>
+        <v>-1692.1</v>
       </c>
       <c r="AH9">
-        <v>0.05067958714463656</v>
+        <v>0.1473459921576019</v>
       </c>
       <c r="AI9">
-        <v>0.07211737422795525</v>
+        <v>0.1825558467166541</v>
       </c>
       <c r="AJ9">
-        <v>-0.1355741965973535</v>
+        <v>-0.1159393478454508</v>
       </c>
       <c r="AK9">
-        <v>-0.2103831815681721</v>
+        <v>-0.1550877128663868</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1615,7 +1570,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Al Rajhi Banking and Investment Corporation (SASE:1120)</t>
+          <t>Arab National Bank (SASE:1080)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1624,13 +1579,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.09230000000000001</v>
+        <v>-0.0136</v>
       </c>
       <c r="E10">
-        <v>0.09910000000000001</v>
-      </c>
-      <c r="F10">
-        <v>0.0929</v>
+        <v>-0.0506</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1639,34 +1591,34 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>-0.002766311638869725</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>-0.00260943095309682</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>2934.2</v>
+        <v>616.8</v>
       </c>
       <c r="L10">
-        <v>0.6271802325581396</v>
+        <v>0.4710194730813287</v>
       </c>
       <c r="M10">
-        <v>1974.4</v>
+        <v>185.1</v>
       </c>
       <c r="N10">
-        <v>0.04530019639874452</v>
+        <v>0.02303155484770058</v>
       </c>
       <c r="O10">
-        <v>0.6728921000613456</v>
+        <v>0.3000972762645914</v>
       </c>
       <c r="P10">
-        <v>1974.4</v>
+        <v>185.1</v>
       </c>
       <c r="Q10">
-        <v>0.04530019639874452</v>
+        <v>0.02303155484770058</v>
       </c>
       <c r="R10">
-        <v>0.6728921000613456</v>
+        <v>0.3000972762645914</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1675,67 +1627,61 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>2726.4</v>
+        <v>1057.8</v>
       </c>
       <c r="V10">
-        <v>0.06255391787962776</v>
+        <v>0.1316195500696795</v>
       </c>
       <c r="W10">
-        <v>0.2117027417027417</v>
+        <v>0.08378840981335071</v>
       </c>
       <c r="X10">
-        <v>0.04291055490511037</v>
+        <v>0.03933608761580457</v>
       </c>
       <c r="Y10">
-        <v>0.1687921867976313</v>
+        <v>0.04445232219754614</v>
       </c>
       <c r="Z10">
-        <v>0.6628464809195629</v>
+        <v>0.1643716971895515</v>
       </c>
       <c r="AA10">
-        <v>-0.001729652124462808</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.04289303110267033</v>
+        <v>0.03684710169802705</v>
       </c>
       <c r="AC10">
-        <v>-0.04462268322713314</v>
+        <v>-0.03684710169802705</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>1609</v>
       </c>
       <c r="AE10">
-        <v>65.2445618564406</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>65.2445618564406</v>
+        <v>1609</v>
       </c>
       <c r="AG10">
-        <v>-2661.155438143559</v>
+        <v>551.2</v>
       </c>
       <c r="AH10">
-        <v>0.001494719249690171</v>
+        <v>0.1668083518215182</v>
       </c>
       <c r="AI10">
-        <v>0.004951793896076312</v>
+        <v>0.1704539435351449</v>
       </c>
       <c r="AJ10">
-        <v>-0.0650273324048937</v>
+        <v>0.06418258034466698</v>
       </c>
       <c r="AK10">
-        <v>-0.2546671218435175</v>
+        <v>0.06576231552071775</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>-24870.61157143514</v>
       </c>
     </row>
     <row r="11">
@@ -1746,7 +1692,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Banque Saudi Fransi (SASE:1050)</t>
+          <t>Bank AlJazira (SASE:1020)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1755,13 +1701,10 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.0282</v>
+        <v>-0.0133</v>
       </c>
       <c r="E11">
-        <v>0.00893</v>
-      </c>
-      <c r="F11">
-        <v>0.105</v>
+        <v>-0.102</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1770,91 +1713,91 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>-0.006585010011287031</v>
+        <v>0.001663207420605732</v>
       </c>
       <c r="J11">
-        <v>-0.006103688845039981</v>
+        <v>0.001419142358060126</v>
       </c>
       <c r="K11">
-        <v>819.2</v>
+        <v>207</v>
       </c>
       <c r="L11">
-        <v>0.5625600879000138</v>
+        <v>0.2947038724373576</v>
       </c>
       <c r="M11">
-        <v>563.55</v>
+        <v>63.8</v>
       </c>
       <c r="N11">
-        <v>0.04651018841763846</v>
+        <v>0.02136780762274767</v>
       </c>
       <c r="O11">
-        <v>0.6879272460937499</v>
+        <v>0.3082125603864734</v>
       </c>
       <c r="P11">
-        <v>562.3</v>
+        <v>63.8</v>
       </c>
       <c r="Q11">
-        <v>0.04640702501506185</v>
+        <v>0.02136780762274767</v>
       </c>
       <c r="R11">
-        <v>0.6864013671874999</v>
+        <v>0.3082125603864734</v>
       </c>
       <c r="S11">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0.00221808180285689</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>2981.9</v>
+        <v>364.6</v>
       </c>
       <c r="V11">
-        <v>0.2460983601145526</v>
+        <v>0.1221113269475518</v>
       </c>
       <c r="W11">
-        <v>0.09649453448925745</v>
+        <v>0.06862712594901037</v>
       </c>
       <c r="X11">
-        <v>0.04445712982803812</v>
+        <v>0.06301378052871603</v>
       </c>
       <c r="Y11">
-        <v>0.05203740466121933</v>
+        <v>0.005613345420294333</v>
       </c>
       <c r="Z11">
-        <v>0.324353548406586</v>
+        <v>0.1466952177359965</v>
       </c>
       <c r="AA11">
-        <v>-0.001979753135258415</v>
+        <v>0.0002081813972140056</v>
       </c>
       <c r="AB11">
-        <v>0.04343864543995494</v>
+        <v>0.03854715929753806</v>
       </c>
       <c r="AC11">
-        <v>-0.04541839857521335</v>
+        <v>-0.03833897790032405</v>
       </c>
       <c r="AD11">
-        <v>926.1</v>
+        <v>4008.2</v>
       </c>
       <c r="AE11">
-        <v>81.14545789218087</v>
+        <v>2.958815538832669</v>
       </c>
       <c r="AF11">
-        <v>1007.245457892181</v>
+        <v>4011.158815538833</v>
       </c>
       <c r="AG11">
-        <v>-1974.654542107819</v>
+        <v>3646.558815538833</v>
       </c>
       <c r="AH11">
-        <v>0.07674867753176057</v>
+        <v>0.573271748667558</v>
       </c>
       <c r="AI11">
-        <v>0.103828547372979</v>
+        <v>0.5604087816687912</v>
       </c>
       <c r="AJ11">
-        <v>-0.1946998315385397</v>
+        <v>0.5498132590467476</v>
       </c>
       <c r="AK11">
-        <v>-0.2938847736639527</v>
+        <v>0.5368145037472275</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1863,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="AN11">
-        <v>139.4728915662651</v>
+        <v>2277.386363636364</v>
       </c>
       <c r="AP11">
-        <v>-297.3877322451535</v>
+        <v>2071.908417919791</v>
       </c>
     </row>
     <row r="12">
@@ -1877,7 +1820,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>The Saudi Investment Bank (SASE:1030)</t>
+          <t>The National Commercial Bank (SASE:1180)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1886,10 +1829,13 @@
         </is>
       </c>
       <c r="D12">
-        <v>-0.0306</v>
+        <v>0.0499</v>
       </c>
       <c r="E12">
-        <v>-0.119</v>
+        <v>0.0547</v>
+      </c>
+      <c r="F12">
+        <v>0.0344</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1898,103 +1844,97 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.005951945844630471</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.005631764319847275</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>197</v>
+        <v>3057.9</v>
       </c>
       <c r="L12">
-        <v>0.3970173317210802</v>
+        <v>0.59038517231393</v>
       </c>
       <c r="M12">
-        <v>74.8</v>
+        <v>1265.3</v>
       </c>
       <c r="N12">
-        <v>0.02303948746380829</v>
+        <v>0.0366165635472314</v>
       </c>
       <c r="O12">
-        <v>0.3796954314720812</v>
+        <v>0.4137806991726348</v>
       </c>
       <c r="P12">
-        <v>-0</v>
+        <v>959.8</v>
       </c>
       <c r="Q12">
-        <v>-0</v>
+        <v>0.02777568773621489</v>
       </c>
       <c r="R12">
-        <v>-0</v>
+        <v>0.3138755354982177</v>
       </c>
       <c r="S12">
-        <v>74.8</v>
+        <v>305.5</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>0.2414447166679839</v>
       </c>
       <c r="U12">
-        <v>530.2</v>
+        <v>7195.3</v>
       </c>
       <c r="V12">
-        <v>0.163309308199347</v>
+        <v>0.2082250531031329</v>
       </c>
       <c r="W12">
-        <v>0.0517141807108731</v>
+        <v>0.1712600740396409</v>
       </c>
       <c r="X12">
-        <v>0.06795140446895707</v>
+        <v>0.04722803389094044</v>
       </c>
       <c r="Y12">
-        <v>-0.01623722375808397</v>
+        <v>0.1240320401487005</v>
       </c>
       <c r="Z12">
-        <v>0.06474228870702899</v>
+        <v>0.1570954553174969</v>
       </c>
       <c r="AA12">
-        <v>0.000364613311525497</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.04778628979455</v>
+        <v>0.03884222221319413</v>
       </c>
       <c r="AC12">
-        <v>-0.04742167648302451</v>
+        <v>-0.03884222221319413</v>
       </c>
       <c r="AD12">
-        <v>4247.2</v>
+        <v>20085.1</v>
       </c>
       <c r="AE12">
-        <v>48.7332223594718</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>4295.933222359472</v>
+        <v>20085.1</v>
       </c>
       <c r="AG12">
-        <v>3765.733222359472</v>
+        <v>12889.8</v>
       </c>
       <c r="AH12">
-        <v>0.5695610606824226</v>
+        <v>0.3675863141808731</v>
       </c>
       <c r="AI12">
-        <v>0.5358440608643351</v>
+        <v>0.4956640409065782</v>
       </c>
       <c r="AJ12">
-        <v>0.5370157268556611</v>
+        <v>0.2716776407307799</v>
       </c>
       <c r="AK12">
-        <v>0.5029740630133094</v>
+        <v>0.3867756096536369</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12">
         <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>334.4251968503937</v>
-      </c>
-      <c r="AP12">
-        <v>296.5144269574388</v>
       </c>
     </row>
     <row r="13">
@@ -2005,7 +1945,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>The National Commercial Bank (SASE:1180)</t>
+          <t>The Saudi Investment Bank (SASE:1030)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2014,13 +1954,13 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.0371</v>
+        <v>-0.0288</v>
       </c>
       <c r="E13">
-        <v>0.0645</v>
+        <v>-0.152</v>
       </c>
       <c r="F13">
-        <v>0.05400000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2029,103 +1969,94 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>-0.01207756433801614</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>-0.01207756433801614</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>3143.2</v>
+        <v>172</v>
       </c>
       <c r="L13">
-        <v>0.6456463241788715</v>
+        <v>0.3162346019488877</v>
       </c>
       <c r="M13">
-        <v>1790.8</v>
+        <v>-0</v>
       </c>
       <c r="N13">
-        <v>0.04560177640156454</v>
+        <v>-0</v>
       </c>
       <c r="O13">
-        <v>0.5697378467803512</v>
+        <v>-0</v>
       </c>
       <c r="P13">
-        <v>1757.5</v>
+        <v>-0</v>
       </c>
       <c r="Q13">
-        <v>0.04475380948500652</v>
+        <v>-0</v>
       </c>
       <c r="R13">
-        <v>0.5591435479765844</v>
+        <v>-0</v>
       </c>
       <c r="S13">
-        <v>33.29999999999995</v>
-      </c>
-      <c r="T13">
-        <v>0.01859504132231403</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>5183.6</v>
+        <v>714</v>
       </c>
       <c r="V13">
-        <v>0.1319976368970013</v>
+        <v>0.2480113932404738</v>
       </c>
       <c r="W13">
-        <v>0.1885803080209027</v>
+        <v>0.04622164893045255</v>
       </c>
       <c r="X13">
-        <v>0.05283741192331903</v>
+        <v>0.07745740139807882</v>
       </c>
       <c r="Y13">
-        <v>0.1357428960975837</v>
+        <v>-0.03123575246762627</v>
       </c>
       <c r="Z13">
-        <v>0.1916428247373539</v>
+        <v>0.07312252964426877</v>
       </c>
       <c r="AA13">
-        <v>-0.002314578545684543</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.04537963203328321</v>
+        <v>0.04298292950025565</v>
       </c>
       <c r="AC13">
-        <v>-0.04769421057896776</v>
+        <v>-0.04298292950025565</v>
       </c>
       <c r="AD13">
-        <v>20298.7</v>
+        <v>5875.2</v>
       </c>
       <c r="AE13">
-        <v>336.2860323338198</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>20634.98603233382</v>
+        <v>5875.2</v>
       </c>
       <c r="AG13">
-        <v>15451.38603233382</v>
+        <v>5161.2</v>
       </c>
       <c r="AH13">
-        <v>0.3444596120488419</v>
+        <v>0.671136952970608</v>
       </c>
       <c r="AI13">
-        <v>0.532797827864445</v>
+        <v>0.5981247518503059</v>
       </c>
       <c r="AJ13">
-        <v>0.2823626045978097</v>
+        <v>0.641932314274698</v>
       </c>
       <c r="AK13">
-        <v>0.4606044990864369</v>
+        <v>0.5666231185569839</v>
       </c>
       <c r="AL13">
         <v>0</v>
       </c>
       <c r="AM13">
         <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>2399.373522458628</v>
-      </c>
-      <c r="AP13">
-        <v>1826.404968360972</v>
       </c>
     </row>
   </sheetData>
